--- a/Total_Clicks.xlsx
+++ b/Total_Clicks.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,6 +502,66 @@
         <v>1489</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>04/13/24</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>04/13/24</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>04/13/24</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>04/13/24</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>04/13/24</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>04/13/24</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1490</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Total_Clicks.xlsx
+++ b/Total_Clicks.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,7 +459,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1489</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1489</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="4">
@@ -479,7 +479,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1489</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="5">
@@ -489,7 +489,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1489</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="6">
@@ -499,67 +499,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>04/13/24</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>04/13/24</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>04/13/24</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>04/13/24</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>04/13/24</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>04/13/24</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1490</v>
+        <v>1492</v>
       </c>
     </row>
   </sheetData>
